--- a/hero/doc/log/log_201608040227_zengzexing.xlsx
+++ b/hero/doc/log/log_201608040227_zengzexing.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33">
   <si>
     <t>日期</t>
   </si>
@@ -48,7 +48,7 @@
     <t>18:00-20:00</t>
   </si>
   <si>
-    <t>1.修正代码不足</t>
+    <t>修正代码不足</t>
   </si>
   <si>
     <t>数据插入成功</t>
@@ -66,6 +66,12 @@
     <t>按照老师的模板挨个添加文件</t>
   </si>
   <si>
+    <t>生成表</t>
+  </si>
+  <si>
+    <t>代码错误修正</t>
+  </si>
+  <si>
     <t>未能插入数据</t>
   </si>
   <si>
@@ -91,6 +97,18 @@
   </si>
   <si>
     <t>整合其他实体类</t>
+  </si>
+  <si>
+    <t>14:00-15:40</t>
+  </si>
+  <si>
+    <t>修改order类整合错误</t>
+  </si>
+  <si>
+    <t>统一小组配置</t>
+  </si>
+  <si>
+    <t>继续添加信息实体类</t>
   </si>
   <si>
     <t>周次</t>
@@ -104,9 +122,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -1035,13 +1053,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="14.1296296296296" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
@@ -1120,36 +1138,70 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1">
-        <v>43236</v>
+        <v>42505</v>
       </c>
       <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
         <v>17</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
         <v>18</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1">
+        <v>43236</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1">
         <v>43237</v>
       </c>
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="B7" t="s">
         <v>23</v>
       </c>
-      <c r="E6" t="s">
+      <c r="C7" t="s">
         <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1">
+        <v>43238</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1177,13 +1229,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>

--- a/hero/doc/log/log_201608040227_zengzexing.xlsx
+++ b/hero/doc/log/log_201608040227_zengzexing.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22943" windowHeight="9707"/>
+    <workbookView windowWidth="22943" windowHeight="10115"/>
   </bookViews>
   <sheets>
     <sheet name="日志" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37">
   <si>
     <t>日期</t>
   </si>
@@ -109,6 +109,18 @@
   </si>
   <si>
     <t>继续添加信息实体类</t>
+  </si>
+  <si>
+    <t>13:00-16:00</t>
+  </si>
+  <si>
+    <t>分离push类实体</t>
+  </si>
+  <si>
+    <t>将push类实体放在push包下</t>
+  </si>
+  <si>
+    <t>继续完善push实体类</t>
   </si>
   <si>
     <t>周次</t>
@@ -122,10 +134,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -258,23 +270,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -295,6 +307,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -307,30 +343,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -343,48 +355,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -403,6 +415,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -415,7 +463,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -428,48 +482,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -586,10 +598,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -598,115 +610,115 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -715,13 +727,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1053,13 +1065,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="14.1296296296296" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
@@ -1202,6 +1214,23 @@
       </c>
       <c r="E8" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1">
+        <v>43239</v>
+      </c>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1229,13 +1258,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>

--- a/hero/doc/log/log_201608040227_zengzexing.xlsx
+++ b/hero/doc/log/log_201608040227_zengzexing.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22943" windowHeight="10115"/>
+    <workbookView windowWidth="18720" windowHeight="5807"/>
   </bookViews>
   <sheets>
     <sheet name="日志" sheetId="1" r:id="rId1"/>
     <sheet name="周报" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
+  <oleSize ref="A1:E9"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41">
   <si>
     <t>日期</t>
   </si>
@@ -121,6 +122,18 @@
   </si>
   <si>
     <t>继续完善push实体类</t>
+  </si>
+  <si>
+    <t>13:30-18:00</t>
+  </si>
+  <si>
+    <t>添加类方法</t>
+  </si>
+  <si>
+    <t>对push类进行方法测试，添加类方法</t>
+  </si>
+  <si>
+    <t>继续添加类方法</t>
   </si>
   <si>
     <t>周次</t>
@@ -134,8 +147,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -149,17 +162,138 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -170,127 +304,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -301,25 +314,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -337,43 +440,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -385,84 +488,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -470,18 +495,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -492,45 +505,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -545,26 +519,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -592,16 +546,75 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -610,133 +623,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1065,10 +1078,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -1231,6 +1244,23 @@
       </c>
       <c r="E9" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1">
+        <v>43240</v>
+      </c>
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1258,13 +1288,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>

--- a/hero/doc/log/log_201608040227_zengzexing.xlsx
+++ b/hero/doc/log/log_201608040227_zengzexing.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18720" windowHeight="5807"/>
+    <workbookView windowWidth="22943" windowHeight="10115"/>
   </bookViews>
   <sheets>
     <sheet name="日志" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45">
   <si>
     <t>日期</t>
   </si>
@@ -134,6 +134,18 @@
   </si>
   <si>
     <t>继续添加类方法</t>
+  </si>
+  <si>
+    <t>18:20-20:30</t>
+  </si>
+  <si>
+    <t>完善Push实体类</t>
+  </si>
+  <si>
+    <t>完善setLucky方法,幸运用户基本完成</t>
+  </si>
+  <si>
+    <t>测试用户类数据访问</t>
   </si>
   <si>
     <t>周次</t>
@@ -147,8 +159,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -162,7 +174,92 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -176,8 +273,37 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -188,120 +314,6 @@
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -314,25 +326,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -344,157 +440,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -505,6 +517,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -519,6 +570,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -546,75 +617,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -623,133 +635,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1078,10 +1090,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -1261,6 +1273,23 @@
       </c>
       <c r="E10" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1">
+        <v>43241</v>
+      </c>
+      <c r="B11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1288,13 +1317,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>

--- a/hero/doc/log/log_201608040227_zengzexing.xlsx
+++ b/hero/doc/log/log_201608040227_zengzexing.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49">
   <si>
     <t>日期</t>
   </si>
@@ -146,6 +146,18 @@
   </si>
   <si>
     <t>测试用户类数据访问</t>
+  </si>
+  <si>
+    <t>15:30-18:00</t>
+  </si>
+  <si>
+    <t>改错</t>
+  </si>
+  <si>
+    <t>改正项目错误，分离实体</t>
+  </si>
+  <si>
+    <t>各daotest无法运行</t>
   </si>
   <si>
     <t>周次</t>
@@ -160,9 +172,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -326,6 +338,156 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -338,175 +500,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -623,145 +635,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1090,10 +1102,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -1290,6 +1302,23 @@
       </c>
       <c r="E11" t="s">
         <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1">
+        <v>43242</v>
+      </c>
+      <c r="B12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1317,13 +1346,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>

--- a/hero/doc/log/log_201608040227_zengzexing.xlsx
+++ b/hero/doc/log/log_201608040227_zengzexing.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22943" windowHeight="10115"/>
+    <workbookView windowWidth="22943" windowHeight="9947"/>
   </bookViews>
   <sheets>
     <sheet name="日志" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52">
   <si>
     <t>日期</t>
   </si>
@@ -158,6 +158,15 @@
   </si>
   <si>
     <t>各daotest无法运行</t>
+  </si>
+  <si>
+    <t>20:30-22:30</t>
+  </si>
+  <si>
+    <t>完善实体类</t>
+  </si>
+  <si>
+    <t>继续完善psuh</t>
   </si>
   <si>
     <t>周次</t>
@@ -172,9 +181,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -182,6 +191,13 @@
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -246,8 +262,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -308,22 +325,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -338,19 +347,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -362,7 +425,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -374,151 +509,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -552,6 +561,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -606,21 +630,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -635,10 +644,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -647,133 +656,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1102,10 +1111,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -1319,6 +1328,23 @@
       </c>
       <c r="E12" t="s">
         <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1">
+        <v>43243</v>
+      </c>
+      <c r="B13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1346,13 +1372,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>

--- a/hero/doc/log/log_201608040227_zengzexing.xlsx
+++ b/hero/doc/log/log_201608040227_zengzexing.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22943" windowHeight="9947"/>
+    <workbookView windowWidth="22943" windowHeight="10115"/>
   </bookViews>
   <sheets>
     <sheet name="日志" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58">
   <si>
     <t>日期</t>
   </si>
@@ -167,6 +167,24 @@
   </si>
   <si>
     <t>继续完善psuh</t>
+  </si>
+  <si>
+    <t>添加实体类代码</t>
+  </si>
+  <si>
+    <t>添加代码成功</t>
+  </si>
+  <si>
+    <t>继续完善psuh实体类</t>
+  </si>
+  <si>
+    <t>继续完善psuh方法</t>
+  </si>
+  <si>
+    <t>9:00-11:00</t>
+  </si>
+  <si>
+    <t>8:30-10:30</t>
   </si>
   <si>
     <t>周次</t>
@@ -180,10 +198,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -201,16 +219,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -231,6 +242,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -247,32 +265,52 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -288,51 +326,31 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -347,6 +365,126 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -359,175 +497,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -541,17 +559,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -580,6 +594,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -591,6 +614,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -610,31 +642,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -644,10 +662,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -656,133 +674,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1111,10 +1129,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -1345,6 +1363,74 @@
       </c>
       <c r="E13" t="s">
         <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1">
+        <v>43244</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1">
+        <v>43245</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1">
+        <v>43246</v>
+      </c>
+      <c r="B16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1">
+        <v>43247</v>
+      </c>
+      <c r="B17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1372,13 +1458,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>

--- a/hero/doc/log/log_201608040227_zengzexing.xlsx
+++ b/hero/doc/log/log_201608040227_zengzexing.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60">
   <si>
     <t>日期</t>
   </si>
@@ -185,6 +185,12 @@
   </si>
   <si>
     <t>8:30-10:30</t>
+  </si>
+  <si>
+    <t>添加并修改小部分代码</t>
+  </si>
+  <si>
+    <t>对push类进行方法测试，继续添加类方法</t>
   </si>
   <si>
     <t>周次</t>
@@ -198,10 +204,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -1129,10 +1135,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -1431,6 +1437,40 @@
       </c>
       <c r="E17" t="s">
         <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1">
+        <v>43248</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1">
+        <v>43249</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1458,13 +1498,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>

--- a/hero/doc/log/log_201608040227_zengzexing.xlsx
+++ b/hero/doc/log/log_201608040227_zengzexing.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22943" windowHeight="10115"/>
+    <workbookView windowWidth="20385" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="日志" sheetId="1" r:id="rId1"/>
     <sheet name="周报" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <oleSize ref="A1:E9"/>
+  <oleSize ref="D1:H9"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62">
   <si>
     <t>日期</t>
   </si>
@@ -191,6 +191,12 @@
   </si>
   <si>
     <t>对push类进行方法测试，继续添加类方法</t>
+  </si>
+  <si>
+    <t>在push类中测试方法</t>
+  </si>
+  <si>
+    <t>测试实体类</t>
   </si>
   <si>
     <t>周次</t>
@@ -205,9 +211,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -225,9 +231,84 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -249,114 +330,39 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -371,19 +377,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -395,55 +503,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -455,7 +521,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -467,91 +545,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -565,37 +571,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -627,8 +613,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -648,17 +634,37 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -668,10 +674,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -680,7 +686,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -692,121 +698,121 @@
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1135,19 +1141,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="14.1296296296296" customWidth="1"/>
+    <col min="1" max="1" width="14.1333333333333" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="36.6296296296296" customWidth="1"/>
+    <col min="3" max="3" width="36.6333333333333" customWidth="1"/>
     <col min="4" max="4" width="78" customWidth="1"/>
-    <col min="5" max="5" width="53.1111111111111" customWidth="1"/>
+    <col min="5" max="5" width="53.1083333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1471,6 +1477,23 @@
       </c>
       <c r="E19" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1">
+        <v>43250</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1489,22 +1512,22 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="3"/>
   <cols>
-    <col min="2" max="2" width="17.6296296296296" customWidth="1"/>
+    <col min="2" max="2" width="17.6333333333333" customWidth="1"/>
     <col min="3" max="3" width="19.5" customWidth="1"/>
     <col min="4" max="4" width="26.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>

--- a/hero/doc/log/log_201608040227_zengzexing.xlsx
+++ b/hero/doc/log/log_201608040227_zengzexing.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370"/>
+    <workbookView windowWidth="22943" windowHeight="10115"/>
   </bookViews>
   <sheets>
     <sheet name="日志" sheetId="1" r:id="rId1"/>
     <sheet name="周报" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <oleSize ref="D1:H9"/>
+  <oleSize ref="A1:E9"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60">
   <si>
     <t>日期</t>
   </si>
@@ -191,12 +191,6 @@
   </si>
   <si>
     <t>对push类进行方法测试，继续添加类方法</t>
-  </si>
-  <si>
-    <t>在push类中测试方法</t>
-  </si>
-  <si>
-    <t>测试实体类</t>
   </si>
   <si>
     <t>周次</t>
@@ -211,9 +205,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -231,26 +225,70 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -262,31 +300,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -300,69 +330,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -377,13 +371,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -395,169 +509,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -571,17 +565,37 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -613,8 +627,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -634,37 +648,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -674,10 +668,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -686,7 +680,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -698,121 +692,121 @@
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1141,19 +1135,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="14.1333333333333" customWidth="1"/>
+    <col min="1" max="1" width="14.1296296296296" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="36.6333333333333" customWidth="1"/>
+    <col min="3" max="3" width="36.6296296296296" customWidth="1"/>
     <col min="4" max="4" width="78" customWidth="1"/>
-    <col min="5" max="5" width="53.1083333333333" customWidth="1"/>
+    <col min="5" max="5" width="53.1111111111111" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1477,23 +1471,6 @@
       </c>
       <c r="E19" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="1">
-        <v>43250</v>
-      </c>
-      <c r="B20" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" t="s">
-        <v>48</v>
-      </c>
-      <c r="D20" t="s">
-        <v>58</v>
-      </c>
-      <c r="E20" t="s">
-        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1512,22 +1489,22 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="3"/>
   <cols>
-    <col min="2" max="2" width="17.6333333333333" customWidth="1"/>
+    <col min="2" max="2" width="17.6296296296296" customWidth="1"/>
     <col min="3" max="3" width="19.5" customWidth="1"/>
     <col min="4" max="4" width="26.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>

--- a/hero/doc/log/log_201608040227_zengzexing.xlsx
+++ b/hero/doc/log/log_201608040227_zengzexing.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61">
   <si>
     <t>日期</t>
   </si>
@@ -191,6 +191,9 @@
   </si>
   <si>
     <t>对push类进行方法测试，继续添加类方法</t>
+  </si>
+  <si>
+    <t>继续添加测试类方法</t>
   </si>
   <si>
     <t>周次</t>
@@ -204,10 +207,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -371,6 +374,162 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -389,169 +548,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -668,145 +671,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1470,7 +1473,7 @@
         <v>57</v>
       </c>
       <c r="E19" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1498,13 +1501,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>

--- a/hero/doc/log/log_201608040227_zengzexing.xlsx
+++ b/hero/doc/log/log_201608040227_zengzexing.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65">
   <si>
     <t>日期</t>
   </si>
@@ -194,6 +194,18 @@
   </si>
   <si>
     <t>继续添加测试类方法</t>
+  </si>
+  <si>
+    <t>测试类方法</t>
+  </si>
+  <si>
+    <t>14:00-16:00</t>
+  </si>
+  <si>
+    <t>测试类方法，改错</t>
+  </si>
+  <si>
+    <t>修正代码</t>
   </si>
   <si>
     <t>周次</t>
@@ -207,9 +219,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -222,7 +234,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -230,7 +242,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -251,45 +263,63 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -303,63 +333,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -374,19 +386,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -398,163 +470,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -565,6 +577,60 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -583,7 +649,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -606,62 +672,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -671,10 +683,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -683,133 +695,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1138,10 +1150,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -1473,6 +1485,40 @@
         <v>57</v>
       </c>
       <c r="E19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1">
+        <v>43250</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" t="s">
+        <v>59</v>
+      </c>
+      <c r="E20" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1">
+        <v>43251</v>
+      </c>
+      <c r="B21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" t="s">
+        <v>62</v>
+      </c>
+      <c r="E21" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1501,13 +1547,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>

--- a/hero/doc/log/log_201608040227_zengzexing.xlsx
+++ b/hero/doc/log/log_201608040227_zengzexing.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68">
   <si>
     <t>日期</t>
   </si>
@@ -206,6 +206,15 @@
   </si>
   <si>
     <t>修正代码</t>
+  </si>
+  <si>
+    <t>上机实验</t>
+  </si>
+  <si>
+    <t>配置，调用数据</t>
+  </si>
+  <si>
+    <t>已完成</t>
   </si>
   <si>
     <t>周次</t>
@@ -220,9 +229,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -386,6 +395,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -410,6 +425,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -422,6 +443,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -452,18 +479,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -488,30 +533,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -530,43 +575,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -683,10 +692,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -695,133 +704,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1150,10 +1159,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -1520,6 +1529,23 @@
       </c>
       <c r="E21" t="s">
         <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1">
+        <v>43252</v>
+      </c>
+      <c r="B22" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" t="s">
+        <v>63</v>
+      </c>
+      <c r="D22" t="s">
+        <v>64</v>
+      </c>
+      <c r="E22" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1547,13 +1573,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>

--- a/hero/doc/log/log_201608040227_zengzexing.xlsx
+++ b/hero/doc/log/log_201608040227_zengzexing.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71">
   <si>
     <t>日期</t>
   </si>
@@ -215,6 +215,15 @@
   </si>
   <si>
     <t>已完成</t>
+  </si>
+  <si>
+    <t>配置web</t>
+  </si>
+  <si>
+    <t>根据dream进行配置</t>
+  </si>
+  <si>
+    <t>未完成</t>
   </si>
   <si>
     <t>周次</t>
@@ -229,9 +238,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -1159,10 +1168,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -1546,6 +1555,23 @@
       </c>
       <c r="E22" t="s">
         <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1">
+        <v>43253</v>
+      </c>
+      <c r="B23" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" t="s">
+        <v>66</v>
+      </c>
+      <c r="D23" t="s">
+        <v>67</v>
+      </c>
+      <c r="E23" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1573,13 +1599,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>

--- a/hero/doc/log/log_201608040227_zengzexing.xlsx
+++ b/hero/doc/log/log_201608040227_zengzexing.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22943" windowHeight="10115"/>
+    <workbookView windowWidth="16500" windowHeight="5700"/>
   </bookViews>
   <sheets>
     <sheet name="日志" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73">
   <si>
     <t>日期</t>
   </si>
@@ -224,6 +224,12 @@
   </si>
   <si>
     <t>未完成</t>
+  </si>
+  <si>
+    <t>配置controller</t>
+  </si>
+  <si>
+    <t>部分代码不完善</t>
   </si>
   <si>
     <t>周次</t>
@@ -237,10 +243,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -252,9 +258,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -267,7 +281,15 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -275,7 +297,67 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -290,7 +372,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -306,68 +388,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -379,21 +400,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -404,187 +410,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -613,15 +619,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -633,6 +630,39 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -667,31 +697,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -701,10 +707,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -713,133 +719,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1168,10 +1174,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="D19" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -1572,6 +1578,23 @@
       </c>
       <c r="E23" t="s">
         <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="1">
+        <v>43254</v>
+      </c>
+      <c r="B24" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" t="s">
+        <v>69</v>
+      </c>
+      <c r="D24" t="s">
+        <v>67</v>
+      </c>
+      <c r="E24" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1599,13 +1622,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>

--- a/hero/doc/log/log_201608040227_zengzexing.xlsx
+++ b/hero/doc/log/log_201608040227_zengzexing.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16500" windowHeight="5700"/>
+    <workbookView windowWidth="13511" windowHeight="3863"/>
   </bookViews>
   <sheets>
     <sheet name="日志" sheetId="1" r:id="rId1"/>
     <sheet name="周报" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <oleSize ref="A1:E9"/>
+  <oleSize ref="E19:I27"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74">
   <si>
     <t>日期</t>
   </si>
@@ -230,6 +230,9 @@
   </si>
   <si>
     <t>部分代码不完善</t>
+  </si>
+  <si>
+    <t>修改pom</t>
   </si>
   <si>
     <t>周次</t>
@@ -243,10 +246,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -258,7 +261,38 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -272,9 +306,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -289,45 +337,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -340,7 +353,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -355,6 +368,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -362,44 +403,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -410,31 +413,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -446,19 +563,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -470,127 +575,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -619,6 +622,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -630,39 +642,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -697,7 +676,31 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -707,10 +710,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -719,133 +722,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1174,10 +1177,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D19" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="E19" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -1595,6 +1598,23 @@
       </c>
       <c r="E24" t="s">
         <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="1">
+        <v>43255</v>
+      </c>
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" t="s">
+        <v>69</v>
+      </c>
+      <c r="D25" t="s">
+        <v>71</v>
+      </c>
+      <c r="E25" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1622,13 +1642,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>

--- a/hero/doc/log/log_201608040227_zengzexing.xlsx
+++ b/hero/doc/log/log_201608040227_zengzexing.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19330"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\xiaoyuandingcan\hero\doc\log\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{BB37791C-D151-4B0E-9CC0-1592904D716D}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="13511" windowHeight="3863"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13510" windowHeight="3860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="日志" sheetId="1" r:id="rId1"/>
     <sheet name="周报" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <oleSize ref="E19:I27"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="78">
   <si>
     <t>日期</t>
   </si>
@@ -239,19 +244,29 @@
   </si>
   <si>
     <t>执行情况</t>
+  </si>
+  <si>
+    <t>18:00-20:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置controller</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改pom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部分完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -260,345 +275,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -606,251 +297,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -859,61 +308,17 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1171,28 +576,28 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E19" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.1296296296296" customWidth="1"/>
+    <col min="1" max="1" width="14.1640625" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="36.6296296296296" customWidth="1"/>
+    <col min="3" max="3" width="36.6640625" customWidth="1"/>
     <col min="4" max="4" width="78" customWidth="1"/>
-    <col min="5" max="5" width="53.1111111111111" customWidth="1"/>
+    <col min="5" max="5" width="53.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1209,7 +614,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="60.75" customHeight="1" spans="1:5">
+    <row r="2" spans="1:5" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>43232</v>
       </c>
@@ -1226,7 +631,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>43233</v>
       </c>
@@ -1243,7 +648,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>43234</v>
       </c>
@@ -1260,7 +665,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>42505</v>
       </c>
@@ -1277,7 +682,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>43236</v>
       </c>
@@ -1294,7 +699,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>43237</v>
       </c>
@@ -1311,7 +716,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>43238</v>
       </c>
@@ -1328,7 +733,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>43239</v>
       </c>
@@ -1345,7 +750,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>43240</v>
       </c>
@@ -1362,7 +767,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>43241</v>
       </c>
@@ -1379,7 +784,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>43242</v>
       </c>
@@ -1396,7 +801,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>43243</v>
       </c>
@@ -1413,7 +818,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>43244</v>
       </c>
@@ -1430,7 +835,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>43245</v>
       </c>
@@ -1447,7 +852,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>43246</v>
       </c>
@@ -1464,7 +869,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>43247</v>
       </c>
@@ -1481,7 +886,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>43248</v>
       </c>
@@ -1498,7 +903,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>43249</v>
       </c>
@@ -1515,7 +920,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>43250</v>
       </c>
@@ -1532,7 +937,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>43251</v>
       </c>
@@ -1549,7 +954,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>43252</v>
       </c>
@@ -1566,7 +971,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>43253</v>
       </c>
@@ -1583,7 +988,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>43254</v>
       </c>
@@ -1600,7 +1005,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>43255</v>
       </c>
@@ -1608,39 +1013,72 @@
         <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D25" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E25" t="s">
         <v>68</v>
       </c>
     </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>43256</v>
+      </c>
+      <c r="B26" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26" t="s">
+        <v>75</v>
+      </c>
+      <c r="D26" t="s">
+        <v>71</v>
+      </c>
+      <c r="E26" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>43257</v>
+      </c>
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" t="s">
+        <v>69</v>
+      </c>
+      <c r="D27" t="s">
+        <v>76</v>
+      </c>
+      <c r="E27" t="s">
+        <v>77</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="17.6296296296296" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" customWidth="1"/>
     <col min="3" max="3" width="19.5" customWidth="1"/>
     <col min="4" max="4" width="26.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>72</v>
       </c>
@@ -1654,18 +1092,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="77.25" customHeight="1" spans="1:1">
+    <row r="2" spans="1:4" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/hero/doc/log/log_201608040227_zengzexing.xlsx
+++ b/hero/doc/log/log_201608040227_zengzexing.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\xiaoyuandingcan\hero\doc\log\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{BB37791C-D151-4B0E-9CC0-1592904D716D}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13510" windowHeight="3860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="22943" windowHeight="10115"/>
   </bookViews>
   <sheets>
     <sheet name="日志" sheetId="1" r:id="rId1"/>
@@ -21,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77">
   <si>
     <t>日期</t>
   </si>
@@ -240,33 +234,32 @@
     <t>修改pom</t>
   </si>
   <si>
+    <t>部分完成</t>
+  </si>
+  <si>
+    <t>调试网页</t>
+  </si>
+  <si>
+    <t>填充web</t>
+  </si>
+  <si>
     <t>周次</t>
   </si>
   <si>
     <t>执行情况</t>
-  </si>
-  <si>
-    <t>18:00-20:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>配置controller</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改pom</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>部分完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -275,21 +268,345 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -297,9 +614,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -308,17 +867,61 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -576,28 +1179,28 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="14.1640625" customWidth="1"/>
+    <col min="1" max="1" width="14.1666666666667" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="36.6640625" customWidth="1"/>
+    <col min="3" max="3" width="36.6666666666667" customWidth="1"/>
     <col min="4" max="4" width="78" customWidth="1"/>
-    <col min="5" max="5" width="53.08203125" customWidth="1"/>
+    <col min="5" max="5" width="53.0833333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -614,7 +1217,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" ht="60.75" customHeight="1" spans="1:5">
       <c r="A2" s="1">
         <v>43232</v>
       </c>
@@ -631,7 +1234,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
         <v>43233</v>
       </c>
@@ -648,7 +1251,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
         <v>43234</v>
       </c>
@@ -665,7 +1268,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>42505</v>
       </c>
@@ -682,7 +1285,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5">
       <c r="A6" s="1">
         <v>43236</v>
       </c>
@@ -699,7 +1302,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5">
       <c r="A7" s="1">
         <v>43237</v>
       </c>
@@ -716,7 +1319,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5">
       <c r="A8" s="1">
         <v>43238</v>
       </c>
@@ -733,7 +1336,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="A9" s="1">
         <v>43239</v>
       </c>
@@ -750,7 +1353,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5">
       <c r="A10" s="1">
         <v>43240</v>
       </c>
@@ -767,7 +1370,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5">
       <c r="A11" s="1">
         <v>43241</v>
       </c>
@@ -784,7 +1387,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5">
       <c r="A12" s="1">
         <v>43242</v>
       </c>
@@ -801,7 +1404,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5">
       <c r="A13" s="1">
         <v>43243</v>
       </c>
@@ -818,7 +1421,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5">
       <c r="A14" s="1">
         <v>43244</v>
       </c>
@@ -835,7 +1438,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5">
       <c r="A15" s="1">
         <v>43245</v>
       </c>
@@ -852,7 +1455,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5">
       <c r="A16" s="1">
         <v>43246</v>
       </c>
@@ -869,7 +1472,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5">
       <c r="A17" s="1">
         <v>43247</v>
       </c>
@@ -886,7 +1489,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5">
       <c r="A18" s="1">
         <v>43248</v>
       </c>
@@ -903,7 +1506,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5">
       <c r="A19" s="1">
         <v>43249</v>
       </c>
@@ -920,7 +1523,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5">
       <c r="A20" s="1">
         <v>43250</v>
       </c>
@@ -937,7 +1540,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5">
       <c r="A21" s="1">
         <v>43251</v>
       </c>
@@ -954,7 +1557,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5">
       <c r="A22" s="1">
         <v>43252</v>
       </c>
@@ -971,7 +1574,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5">
       <c r="A23" s="1">
         <v>43253</v>
       </c>
@@ -988,7 +1591,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5">
       <c r="A24" s="1">
         <v>43254</v>
       </c>
@@ -1005,7 +1608,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5">
       <c r="A25" s="1">
         <v>43255</v>
       </c>
@@ -1013,33 +1616,33 @@
         <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D25" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E25" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5">
       <c r="A26" s="1">
         <v>43256</v>
       </c>
       <c r="B26" t="s">
-        <v>74</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D26" t="s">
         <v>71</v>
       </c>
       <c r="E26" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" s="1">
         <v>43257</v>
       </c>
@@ -1050,60 +1653,112 @@
         <v>69</v>
       </c>
       <c r="D27" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E27" t="s">
-        <v>77</v>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="1">
+        <v>43258</v>
+      </c>
+      <c r="B28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" t="s">
+        <v>69</v>
+      </c>
+      <c r="D28" t="s">
+        <v>71</v>
+      </c>
+      <c r="E28" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="1">
+        <v>43259</v>
+      </c>
+      <c r="B29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" t="s">
+        <v>73</v>
+      </c>
+      <c r="D29" t="s">
+        <v>74</v>
+      </c>
+      <c r="E29" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="1">
+        <v>43260</v>
+      </c>
+      <c r="B30" t="s">
+        <v>54</v>
+      </c>
+      <c r="C30" t="s">
+        <v>73</v>
+      </c>
+      <c r="D30" t="s">
+        <v>74</v>
+      </c>
+      <c r="E30" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="3"/>
   <cols>
-    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+    <col min="2" max="2" width="17.6666666666667" customWidth="1"/>
     <col min="3" max="3" width="19.5" customWidth="1"/>
     <col min="4" max="4" width="26.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" ht="77.25" customHeight="1" spans="1:1">
       <c r="A2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1">
       <c r="A3">
         <v>2</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/hero/doc/log/log_201608040227_zengzexing.xlsx
+++ b/hero/doc/log/log_201608040227_zengzexing.xlsx
@@ -11,11 +11,12 @@
     <sheet name="周报" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
+  <oleSize ref="A1:E9"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49">
   <si>
     <t>日期</t>
   </si>
@@ -157,90 +158,6 @@
   </si>
   <si>
     <t>各daotest无法运行</t>
-  </si>
-  <si>
-    <t>20:30-22:30</t>
-  </si>
-  <si>
-    <t>完善实体类</t>
-  </si>
-  <si>
-    <t>继续完善psuh</t>
-  </si>
-  <si>
-    <t>添加实体类代码</t>
-  </si>
-  <si>
-    <t>添加代码成功</t>
-  </si>
-  <si>
-    <t>继续完善psuh实体类</t>
-  </si>
-  <si>
-    <t>继续完善psuh方法</t>
-  </si>
-  <si>
-    <t>9:00-11:00</t>
-  </si>
-  <si>
-    <t>8:30-10:30</t>
-  </si>
-  <si>
-    <t>添加并修改小部分代码</t>
-  </si>
-  <si>
-    <t>对push类进行方法测试，继续添加类方法</t>
-  </si>
-  <si>
-    <t>继续添加测试类方法</t>
-  </si>
-  <si>
-    <t>测试类方法</t>
-  </si>
-  <si>
-    <t>14:00-16:00</t>
-  </si>
-  <si>
-    <t>测试类方法，改错</t>
-  </si>
-  <si>
-    <t>修正代码</t>
-  </si>
-  <si>
-    <t>上机实验</t>
-  </si>
-  <si>
-    <t>配置，调用数据</t>
-  </si>
-  <si>
-    <t>已完成</t>
-  </si>
-  <si>
-    <t>配置web</t>
-  </si>
-  <si>
-    <t>根据dream进行配置</t>
-  </si>
-  <si>
-    <t>未完成</t>
-  </si>
-  <si>
-    <t>配置controller</t>
-  </si>
-  <si>
-    <t>部分代码不完善</t>
-  </si>
-  <si>
-    <t>修改pom</t>
-  </si>
-  <si>
-    <t>部分完成</t>
-  </si>
-  <si>
-    <t>调试网页</t>
-  </si>
-  <si>
-    <t>填充web</t>
   </si>
   <si>
     <t>周次</t>
@@ -254,10 +171,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -265,6 +182,21 @@
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -283,6 +215,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -292,6 +270,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -308,7 +294,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -322,13 +308,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -336,69 +315,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -421,187 +338,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -615,11 +532,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -635,6 +582,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -662,66 +629,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -730,7 +647,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -739,124 +656,124 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1185,19 +1102,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="14.1666666666667" customWidth="1"/>
+    <col min="1" max="1" width="14.1296296296296" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="36.6666666666667" customWidth="1"/>
+    <col min="3" max="3" width="36.6296296296296" customWidth="1"/>
     <col min="4" max="4" width="78" customWidth="1"/>
-    <col min="5" max="5" width="53.0833333333333" customWidth="1"/>
+    <col min="5" max="5" width="53.1111111111111" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1402,312 +1319,6 @@
       </c>
       <c r="E12" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="1">
-        <v>43243</v>
-      </c>
-      <c r="B13" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="1">
-        <v>43244</v>
-      </c>
-      <c r="B14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" t="s">
-        <v>51</v>
-      </c>
-      <c r="E14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="1">
-        <v>43245</v>
-      </c>
-      <c r="B15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" t="s">
-        <v>50</v>
-      </c>
-      <c r="D15" t="s">
-        <v>51</v>
-      </c>
-      <c r="E15" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="1">
-        <v>43246</v>
-      </c>
-      <c r="B16" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="1">
-        <v>43247</v>
-      </c>
-      <c r="B17" t="s">
-        <v>55</v>
-      </c>
-      <c r="C17" t="s">
-        <v>50</v>
-      </c>
-      <c r="D17" t="s">
-        <v>51</v>
-      </c>
-      <c r="E17" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="1">
-        <v>43248</v>
-      </c>
-      <c r="B18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" t="s">
-        <v>48</v>
-      </c>
-      <c r="D18" t="s">
-        <v>56</v>
-      </c>
-      <c r="E18" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="1">
-        <v>43249</v>
-      </c>
-      <c r="B19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" t="s">
-        <v>50</v>
-      </c>
-      <c r="D19" t="s">
-        <v>57</v>
-      </c>
-      <c r="E19" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="1">
-        <v>43250</v>
-      </c>
-      <c r="B20" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" t="s">
-        <v>50</v>
-      </c>
-      <c r="D20" t="s">
-        <v>59</v>
-      </c>
-      <c r="E20" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="1">
-        <v>43251</v>
-      </c>
-      <c r="B21" t="s">
-        <v>60</v>
-      </c>
-      <c r="C21" t="s">
-        <v>61</v>
-      </c>
-      <c r="D21" t="s">
-        <v>62</v>
-      </c>
-      <c r="E21" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="1">
-        <v>43252</v>
-      </c>
-      <c r="B22" t="s">
-        <v>60</v>
-      </c>
-      <c r="C22" t="s">
-        <v>63</v>
-      </c>
-      <c r="D22" t="s">
-        <v>64</v>
-      </c>
-      <c r="E22" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="1">
-        <v>43253</v>
-      </c>
-      <c r="B23" t="s">
-        <v>54</v>
-      </c>
-      <c r="C23" t="s">
-        <v>66</v>
-      </c>
-      <c r="D23" t="s">
-        <v>67</v>
-      </c>
-      <c r="E23" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="1">
-        <v>43254</v>
-      </c>
-      <c r="B24" t="s">
-        <v>54</v>
-      </c>
-      <c r="C24" t="s">
-        <v>69</v>
-      </c>
-      <c r="D24" t="s">
-        <v>67</v>
-      </c>
-      <c r="E24" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="1">
-        <v>43255</v>
-      </c>
-      <c r="B25" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" t="s">
-        <v>69</v>
-      </c>
-      <c r="D25" t="s">
-        <v>71</v>
-      </c>
-      <c r="E25" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="1">
-        <v>43256</v>
-      </c>
-      <c r="B26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" t="s">
-        <v>69</v>
-      </c>
-      <c r="D26" t="s">
-        <v>71</v>
-      </c>
-      <c r="E26" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="1">
-        <v>43257</v>
-      </c>
-      <c r="B27" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27" t="s">
-        <v>69</v>
-      </c>
-      <c r="D27" t="s">
-        <v>71</v>
-      </c>
-      <c r="E27" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="1">
-        <v>43258</v>
-      </c>
-      <c r="B28" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28" t="s">
-        <v>69</v>
-      </c>
-      <c r="D28" t="s">
-        <v>71</v>
-      </c>
-      <c r="E28" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="1">
-        <v>43259</v>
-      </c>
-      <c r="B29" t="s">
-        <v>9</v>
-      </c>
-      <c r="C29" t="s">
-        <v>73</v>
-      </c>
-      <c r="D29" t="s">
-        <v>74</v>
-      </c>
-      <c r="E29" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="1">
-        <v>43260</v>
-      </c>
-      <c r="B30" t="s">
-        <v>54</v>
-      </c>
-      <c r="C30" t="s">
-        <v>73</v>
-      </c>
-      <c r="D30" t="s">
-        <v>74</v>
-      </c>
-      <c r="E30" t="s">
-        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1728,20 +1339,20 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="3"/>
   <cols>
-    <col min="2" max="2" width="17.6666666666667" customWidth="1"/>
+    <col min="2" max="2" width="17.6296296296296" customWidth="1"/>
     <col min="3" max="3" width="19.5" customWidth="1"/>
     <col min="4" max="4" width="26.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>

--- a/hero/doc/log/log_201608040227_zengzexing.xlsx
+++ b/hero/doc/log/log_201608040227_zengzexing.xlsx
@@ -11,12 +11,11 @@
     <sheet name="周报" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <oleSize ref="A1:E9"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77">
   <si>
     <t>日期</t>
   </si>
@@ -158,6 +157,90 @@
   </si>
   <si>
     <t>各daotest无法运行</t>
+  </si>
+  <si>
+    <t>20:30-22:30</t>
+  </si>
+  <si>
+    <t>完善实体类</t>
+  </si>
+  <si>
+    <t>继续完善psuh</t>
+  </si>
+  <si>
+    <t>添加实体类代码</t>
+  </si>
+  <si>
+    <t>添加代码成功</t>
+  </si>
+  <si>
+    <t>继续完善psuh实体类</t>
+  </si>
+  <si>
+    <t>继续完善psuh方法</t>
+  </si>
+  <si>
+    <t>9:00-11:00</t>
+  </si>
+  <si>
+    <t>8:30-10:30</t>
+  </si>
+  <si>
+    <t>添加并修改小部分代码</t>
+  </si>
+  <si>
+    <t>对push类进行方法测试，继续添加类方法</t>
+  </si>
+  <si>
+    <t>继续添加测试类方法</t>
+  </si>
+  <si>
+    <t>测试类方法</t>
+  </si>
+  <si>
+    <t>14:00-16:00</t>
+  </si>
+  <si>
+    <t>测试类方法，改错</t>
+  </si>
+  <si>
+    <t>修正代码</t>
+  </si>
+  <si>
+    <t>上机实验</t>
+  </si>
+  <si>
+    <t>配置，调用数据</t>
+  </si>
+  <si>
+    <t>已完成</t>
+  </si>
+  <si>
+    <t>配置web</t>
+  </si>
+  <si>
+    <t>根据dream进行配置</t>
+  </si>
+  <si>
+    <t>未完成</t>
+  </si>
+  <si>
+    <t>配置controller</t>
+  </si>
+  <si>
+    <t>部分代码不完善</t>
+  </si>
+  <si>
+    <t>修改pom</t>
+  </si>
+  <si>
+    <t>部分完成</t>
+  </si>
+  <si>
+    <t>调试网页</t>
+  </si>
+  <si>
+    <t>填充web</t>
   </si>
   <si>
     <t>周次</t>
@@ -171,10 +254,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -185,10 +268,123 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -201,121 +397,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -338,6 +421,132 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -356,18 +565,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -380,79 +577,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -470,55 +601,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -532,41 +615,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -582,26 +635,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -629,16 +662,66 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -647,7 +730,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -656,124 +739,124 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1102,19 +1185,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="14.1296296296296" customWidth="1"/>
+    <col min="1" max="1" width="14.1666666666667" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="36.6296296296296" customWidth="1"/>
+    <col min="3" max="3" width="36.6666666666667" customWidth="1"/>
     <col min="4" max="4" width="78" customWidth="1"/>
-    <col min="5" max="5" width="53.1111111111111" customWidth="1"/>
+    <col min="5" max="5" width="53.0833333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1319,6 +1402,312 @@
       </c>
       <c r="E12" t="s">
         <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1">
+        <v>43243</v>
+      </c>
+      <c r="B13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1">
+        <v>43244</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1">
+        <v>43245</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1">
+        <v>43246</v>
+      </c>
+      <c r="B16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1">
+        <v>43247</v>
+      </c>
+      <c r="B17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1">
+        <v>43248</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1">
+        <v>43249</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1">
+        <v>43250</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" t="s">
+        <v>59</v>
+      </c>
+      <c r="E20" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1">
+        <v>43251</v>
+      </c>
+      <c r="B21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" t="s">
+        <v>62</v>
+      </c>
+      <c r="E21" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1">
+        <v>43252</v>
+      </c>
+      <c r="B22" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" t="s">
+        <v>63</v>
+      </c>
+      <c r="D22" t="s">
+        <v>64</v>
+      </c>
+      <c r="E22" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1">
+        <v>43253</v>
+      </c>
+      <c r="B23" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" t="s">
+        <v>66</v>
+      </c>
+      <c r="D23" t="s">
+        <v>67</v>
+      </c>
+      <c r="E23" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="1">
+        <v>43254</v>
+      </c>
+      <c r="B24" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" t="s">
+        <v>69</v>
+      </c>
+      <c r="D24" t="s">
+        <v>67</v>
+      </c>
+      <c r="E24" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="1">
+        <v>43255</v>
+      </c>
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" t="s">
+        <v>69</v>
+      </c>
+      <c r="D25" t="s">
+        <v>71</v>
+      </c>
+      <c r="E25" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="1">
+        <v>43256</v>
+      </c>
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" t="s">
+        <v>69</v>
+      </c>
+      <c r="D26" t="s">
+        <v>71</v>
+      </c>
+      <c r="E26" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="1">
+        <v>43257</v>
+      </c>
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" t="s">
+        <v>69</v>
+      </c>
+      <c r="D27" t="s">
+        <v>71</v>
+      </c>
+      <c r="E27" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="1">
+        <v>43258</v>
+      </c>
+      <c r="B28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" t="s">
+        <v>69</v>
+      </c>
+      <c r="D28" t="s">
+        <v>71</v>
+      </c>
+      <c r="E28" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="1">
+        <v>43259</v>
+      </c>
+      <c r="B29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" t="s">
+        <v>73</v>
+      </c>
+      <c r="D29" t="s">
+        <v>74</v>
+      </c>
+      <c r="E29" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="1">
+        <v>43260</v>
+      </c>
+      <c r="B30" t="s">
+        <v>54</v>
+      </c>
+      <c r="C30" t="s">
+        <v>73</v>
+      </c>
+      <c r="D30" t="s">
+        <v>74</v>
+      </c>
+      <c r="E30" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1339,20 +1728,20 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="3"/>
   <cols>
-    <col min="2" max="2" width="17.6296296296296" customWidth="1"/>
+    <col min="2" max="2" width="17.6666666666667" customWidth="1"/>
     <col min="3" max="3" width="19.5" customWidth="1"/>
     <col min="4" max="4" width="26.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>

--- a/hero/doc/log/log_201608040227_zengzexing.xlsx
+++ b/hero/doc/log/log_201608040227_zengzexing.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22943" windowHeight="10115"/>
+    <workbookView windowWidth="22943" windowHeight="9707"/>
   </bookViews>
   <sheets>
     <sheet name="日志" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79">
   <si>
     <t>日期</t>
   </si>
@@ -241,6 +241,12 @@
   </si>
   <si>
     <t>填充web</t>
+  </si>
+  <si>
+    <t>controller</t>
+  </si>
+  <si>
+    <t>完成</t>
   </si>
   <si>
     <t>周次</t>
@@ -255,9 +261,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -265,6 +271,21 @@
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -283,6 +304,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -292,6 +359,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -308,7 +383,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -322,44 +397,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -367,38 +405,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -421,13 +427,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -439,18 +559,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -469,115 +577,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -615,11 +621,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -635,6 +671,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -662,66 +718,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -730,133 +736,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1185,10 +1191,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -1708,6 +1714,23 @@
       </c>
       <c r="E30" t="s">
         <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="1">
+        <v>43267</v>
+      </c>
+      <c r="B31" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" t="s">
+        <v>75</v>
+      </c>
+      <c r="D31" t="s">
+        <v>75</v>
+      </c>
+      <c r="E31" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1735,13 +1758,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>

--- a/hero/doc/log/log_201608040227_zengzexing.xlsx
+++ b/hero/doc/log/log_201608040227_zengzexing.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22943" windowHeight="9707"/>
+    <workbookView windowWidth="22943" windowHeight="10115"/>
   </bookViews>
   <sheets>
     <sheet name="日志" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83">
   <si>
     <t>日期</t>
   </si>
@@ -247,6 +247,18 @@
   </si>
   <si>
     <t>完成</t>
+  </si>
+  <si>
+    <t>13:00-16:30</t>
+  </si>
+  <si>
+    <t>添加代码注释</t>
+  </si>
+  <si>
+    <t>验收作业并开始课设</t>
+  </si>
+  <si>
+    <t>了解软件</t>
   </si>
   <si>
     <t>周次</t>
@@ -262,8 +274,8 @@
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -276,6 +288,37 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -304,9 +347,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -314,6 +370,29 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -322,21 +401,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -358,65 +423,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -427,24 +439,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -457,19 +481,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -481,7 +583,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -493,67 +595,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -566,48 +620,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -646,6 +658,50 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -674,60 +730,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -736,133 +748,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1191,10 +1203,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -1731,6 +1743,23 @@
       </c>
       <c r="E31" t="s">
         <v>76</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="1">
+        <v>43271</v>
+      </c>
+      <c r="B32" t="s">
+        <v>77</v>
+      </c>
+      <c r="C32" t="s">
+        <v>78</v>
+      </c>
+      <c r="D32" t="s">
+        <v>79</v>
+      </c>
+      <c r="E32" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1758,13 +1787,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>

--- a/hero/doc/log/log_201608040227_zengzexing.xlsx
+++ b/hero/doc/log/log_201608040227_zengzexing.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86">
   <si>
     <t>日期</t>
   </si>
@@ -259,6 +259,15 @@
   </si>
   <si>
     <t>了解软件</t>
+  </si>
+  <si>
+    <t>编写立项申请书</t>
+  </si>
+  <si>
+    <t>立项讨论继续原主题，开始分配立项申请书任务</t>
+  </si>
+  <si>
+    <t>编写完成</t>
   </si>
   <si>
     <t>周次</t>
@@ -272,10 +281,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -287,7 +296,88 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -301,14 +391,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -317,8 +399,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -331,104 +438,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -439,6 +448,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -451,175 +466,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -633,26 +642,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -675,8 +675,26 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -688,15 +706,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -716,17 +725,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -736,10 +745,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -748,133 +757,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1203,10 +1212,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -1760,6 +1769,23 @@
       </c>
       <c r="E32" t="s">
         <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="1">
+        <v>43272</v>
+      </c>
+      <c r="B33" t="s">
+        <v>77</v>
+      </c>
+      <c r="C33" t="s">
+        <v>81</v>
+      </c>
+      <c r="D33" t="s">
+        <v>82</v>
+      </c>
+      <c r="E33" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1787,13 +1813,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>

--- a/hero/doc/log/log_201608040227_zengzexing.xlsx
+++ b/hero/doc/log/log_201608040227_zengzexing.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92">
   <si>
     <t>日期</t>
   </si>
@@ -268,6 +268,24 @@
   </si>
   <si>
     <t>编写完成</t>
+  </si>
+  <si>
+    <t>完成任务模块</t>
+  </si>
+  <si>
+    <t>立项书模块完善</t>
+  </si>
+  <si>
+    <t>Jenkins完善</t>
+  </si>
+  <si>
+    <t>完善Jenkins</t>
+  </si>
+  <si>
+    <t>仍有部分未完善</t>
+  </si>
+  <si>
+    <t>邮箱地址出错</t>
   </si>
   <si>
     <t>周次</t>
@@ -281,10 +299,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -296,7 +314,74 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -310,71 +395,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -383,6 +403,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -399,6 +426,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -406,38 +456,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -448,12 +466,156 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -466,73 +628,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -544,91 +646,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -639,45 +657,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -699,13 +678,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -739,16 +746,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -757,133 +775,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1212,10 +1230,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -1786,6 +1804,40 @@
       </c>
       <c r="E33" t="s">
         <v>83</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="1">
+        <v>43273</v>
+      </c>
+      <c r="B34" t="s">
+        <v>77</v>
+      </c>
+      <c r="C34" t="s">
+        <v>84</v>
+      </c>
+      <c r="D34" t="s">
+        <v>85</v>
+      </c>
+      <c r="E34" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="1">
+        <v>43276</v>
+      </c>
+      <c r="B35" t="s">
+        <v>77</v>
+      </c>
+      <c r="C35" t="s">
+        <v>87</v>
+      </c>
+      <c r="D35" t="s">
+        <v>88</v>
+      </c>
+      <c r="E35" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1813,13 +1865,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>

--- a/hero/doc/log/log_201608040227_zengzexing.xlsx
+++ b/hero/doc/log/log_201608040227_zengzexing.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97">
   <si>
     <t>日期</t>
   </si>
@@ -286,6 +286,21 @@
   </si>
   <si>
     <t>邮箱地址出错</t>
+  </si>
+  <si>
+    <t>创建jira用户并破解</t>
+  </si>
+  <si>
+    <t>熟悉jira</t>
+  </si>
+  <si>
+    <t>完善模块</t>
+  </si>
+  <si>
+    <t>部分完善</t>
+  </si>
+  <si>
+    <t>继续完善模块</t>
   </si>
   <si>
     <t>周次</t>
@@ -299,10 +314,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -314,14 +329,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -335,22 +350,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -366,6 +367,82 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -380,24 +457,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -409,53 +471,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -466,25 +481,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -496,157 +583,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -657,54 +672,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -732,6 +699,56 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -749,11 +766,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -763,10 +778,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -775,133 +790,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1230,10 +1245,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -1838,6 +1853,40 @@
       </c>
       <c r="E35" t="s">
         <v>89</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="1">
+        <v>43277</v>
+      </c>
+      <c r="B36" t="s">
+        <v>77</v>
+      </c>
+      <c r="C36" t="s">
+        <v>90</v>
+      </c>
+      <c r="D36" t="s">
+        <v>25</v>
+      </c>
+      <c r="E36" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="1">
+        <v>43278</v>
+      </c>
+      <c r="B37" t="s">
+        <v>77</v>
+      </c>
+      <c r="C37" t="s">
+        <v>92</v>
+      </c>
+      <c r="D37" t="s">
+        <v>93</v>
+      </c>
+      <c r="E37" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1865,13 +1914,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>

--- a/hero/doc/log/log_201608040227_zengzexing.xlsx
+++ b/hero/doc/log/log_201608040227_zengzexing.xlsx
@@ -315,8 +315,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -329,7 +329,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -343,8 +365,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -359,23 +428,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -383,14 +436,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -413,22 +458,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -441,36 +471,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -481,187 +481,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -672,15 +672,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -695,56 +686,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -772,16 +713,75 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -790,133 +790,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1245,10 +1245,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -1880,12 +1880,29 @@
         <v>77</v>
       </c>
       <c r="C37" t="s">
+        <v>91</v>
+      </c>
+      <c r="D37" t="s">
+        <v>72</v>
+      </c>
+      <c r="E37" t="s">
         <v>92</v>
       </c>
-      <c r="D37" t="s">
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="1">
+        <v>43279</v>
+      </c>
+      <c r="B38" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38" t="s">
+        <v>92</v>
+      </c>
+      <c r="D38" t="s">
         <v>93</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E38" t="s">
         <v>94</v>
       </c>
     </row>
